--- a/data/pca/factorExposure/factorExposure_2013-05-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-28.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001250126729036804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.00194825267106672</v>
+      </c>
+      <c r="C2">
+        <v>-0.03265272746506965</v>
+      </c>
+      <c r="D2">
+        <v>-0.005458010975860594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002219797595742141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005873735555062984</v>
+      </c>
+      <c r="C4">
+        <v>-0.08342996277642228</v>
+      </c>
+      <c r="D4">
+        <v>-0.08055131669894013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005239423111620869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01315938562591139</v>
+      </c>
+      <c r="C6">
+        <v>-0.1069800573684417</v>
+      </c>
+      <c r="D6">
+        <v>-0.03658165989927042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001655702211693822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004791089376069823</v>
+      </c>
+      <c r="C7">
+        <v>-0.05187836283256365</v>
+      </c>
+      <c r="D7">
+        <v>-0.03800826050244187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001158148484472162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.0056406398091816</v>
+      </c>
+      <c r="C8">
+        <v>-0.03690185978754108</v>
+      </c>
+      <c r="D8">
+        <v>-0.03940677235366392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005119154936916117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.003917326031054002</v>
+      </c>
+      <c r="C9">
+        <v>-0.06847612986116339</v>
+      </c>
+      <c r="D9">
+        <v>-0.07082434481566365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004574751603771426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005792650870913249</v>
+      </c>
+      <c r="C10">
+        <v>-0.07570338000647353</v>
+      </c>
+      <c r="D10">
+        <v>0.2112496639744735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005295110280421844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.004976007211120933</v>
+      </c>
+      <c r="C11">
+        <v>-0.0779270181170789</v>
+      </c>
+      <c r="D11">
+        <v>-0.06439337570561161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001117772405360741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003667981202805647</v>
+      </c>
+      <c r="C12">
+        <v>-0.06262711387919821</v>
+      </c>
+      <c r="D12">
+        <v>-0.04593349815233079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00325877383974488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008566386231235653</v>
+      </c>
+      <c r="C13">
+        <v>-0.06890451230014258</v>
+      </c>
+      <c r="D13">
+        <v>-0.06979966208082547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002985623694271203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001563574204333089</v>
+      </c>
+      <c r="C14">
+        <v>-0.0459229779726532</v>
+      </c>
+      <c r="D14">
+        <v>-0.01430893383180023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003150620578906214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005644836112741208</v>
+      </c>
+      <c r="C15">
+        <v>-0.03795058670772875</v>
+      </c>
+      <c r="D15">
+        <v>-0.03894309582624621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.003040767126416609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004757624988719564</v>
+      </c>
+      <c r="C16">
+        <v>-0.06412912549801078</v>
+      </c>
+      <c r="D16">
+        <v>-0.048791985270667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001084693171201874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008903376174534763</v>
+      </c>
+      <c r="C20">
+        <v>-0.06464564212413682</v>
+      </c>
+      <c r="D20">
+        <v>-0.05587579452413084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00428579445052798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009904891758571463</v>
+      </c>
+      <c r="C21">
+        <v>-0.0228770652608578</v>
+      </c>
+      <c r="D21">
+        <v>-0.03625917040843522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01698177905577954</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007123512092810564</v>
+      </c>
+      <c r="C22">
+        <v>-0.09112818477532426</v>
+      </c>
+      <c r="D22">
+        <v>-0.1004895049857497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01732716286254143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006914157131880949</v>
+      </c>
+      <c r="C23">
+        <v>-0.09219078942196673</v>
+      </c>
+      <c r="D23">
+        <v>-0.1011163768832783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003759893812717718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004567284114855679</v>
+      </c>
+      <c r="C24">
+        <v>-0.07202812276479816</v>
+      </c>
+      <c r="D24">
+        <v>-0.06096712807298954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005320285385165435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002647937698062141</v>
+      </c>
+      <c r="C25">
+        <v>-0.07699554465301905</v>
+      </c>
+      <c r="D25">
+        <v>-0.06540062921846507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006131012115590856</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003598227081442369</v>
+      </c>
+      <c r="C26">
+        <v>-0.04105094869633895</v>
+      </c>
+      <c r="D26">
+        <v>-0.02816151006160025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005369812524869823</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.000442870750130791</v>
+      </c>
+      <c r="C28">
+        <v>-0.1267049951879872</v>
+      </c>
+      <c r="D28">
+        <v>0.3078652288253878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002442122213879119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003244178671152733</v>
+      </c>
+      <c r="C29">
+        <v>-0.04793941441836194</v>
+      </c>
+      <c r="D29">
+        <v>-0.01623821990989826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005494176295571603</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008551973007499677</v>
+      </c>
+      <c r="C30">
+        <v>-0.1361111430302873</v>
+      </c>
+      <c r="D30">
+        <v>-0.1104970931099514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>7.000300065714338e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.005992346174815736</v>
+      </c>
+      <c r="C31">
+        <v>-0.04535247432308142</v>
+      </c>
+      <c r="D31">
+        <v>-0.03261738652652681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001906390097787376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003909772208912611</v>
+      </c>
+      <c r="C32">
+        <v>-0.03989440252256157</v>
+      </c>
+      <c r="D32">
+        <v>-0.01168260490449806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003608657360665459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007550299872123724</v>
+      </c>
+      <c r="C33">
+        <v>-0.082275444765697</v>
+      </c>
+      <c r="D33">
+        <v>-0.07565072711114763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005565672379883918</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003566475103794218</v>
+      </c>
+      <c r="C34">
+        <v>-0.05660504378723431</v>
+      </c>
+      <c r="D34">
+        <v>-0.0463649699205455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.00367858598348242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004712924593841385</v>
+      </c>
+      <c r="C35">
+        <v>-0.03803559623273271</v>
+      </c>
+      <c r="D35">
+        <v>-0.0126792847634194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004497565205233536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001408216979942947</v>
+      </c>
+      <c r="C36">
+        <v>-0.02346012071414154</v>
+      </c>
+      <c r="D36">
+        <v>-0.02111474019203117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002489885283202359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009520431476555792</v>
+      </c>
+      <c r="C38">
+        <v>-0.03383014324432868</v>
+      </c>
+      <c r="D38">
+        <v>-0.02407192311626384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01425161362417801</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001190024690958456</v>
+      </c>
+      <c r="C39">
+        <v>-0.1143870347562485</v>
+      </c>
+      <c r="D39">
+        <v>-0.08378965702238705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007994897367142543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002216280736642412</v>
+      </c>
+      <c r="C40">
+        <v>-0.08687805657419634</v>
+      </c>
+      <c r="D40">
+        <v>-0.02625453717908974</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002628713124610072</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007277972638282709</v>
+      </c>
+      <c r="C41">
+        <v>-0.03861823514892396</v>
+      </c>
+      <c r="D41">
+        <v>-0.03559356723752442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003068225074763374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003146796643050299</v>
+      </c>
+      <c r="C43">
+        <v>-0.04998682136223238</v>
+      </c>
+      <c r="D43">
+        <v>-0.02825501930163651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004900545772153798</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003530369352297425</v>
+      </c>
+      <c r="C44">
+        <v>-0.1073987153291702</v>
+      </c>
+      <c r="D44">
+        <v>-0.08526558015404059</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00259016715098809</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002386237330692696</v>
+      </c>
+      <c r="C46">
+        <v>-0.03493182371200172</v>
+      </c>
+      <c r="D46">
+        <v>-0.03465388865372902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001611349895444152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002835289331163845</v>
+      </c>
+      <c r="C47">
+        <v>-0.03965557523837664</v>
+      </c>
+      <c r="D47">
+        <v>-0.02541190209446624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003947923651722755</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006402333237928802</v>
+      </c>
+      <c r="C48">
+        <v>-0.02889827937874088</v>
+      </c>
+      <c r="D48">
+        <v>-0.03031880494064732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01369921042082147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01365817149111843</v>
+      </c>
+      <c r="C49">
+        <v>-0.1706546288661749</v>
+      </c>
+      <c r="D49">
+        <v>-0.03399882338964245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006540881787936814</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003465827872001784</v>
+      </c>
+      <c r="C50">
+        <v>-0.0415984102669719</v>
+      </c>
+      <c r="D50">
+        <v>-0.03627035982806891</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001703254840264097</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004112674937305513</v>
+      </c>
+      <c r="C51">
+        <v>-0.01973908826059744</v>
+      </c>
+      <c r="D51">
+        <v>-0.03298668852002042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0009647773494395367</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.0201479461730719</v>
+      </c>
+      <c r="C53">
+        <v>-0.1650421956631671</v>
+      </c>
+      <c r="D53">
+        <v>-0.05287940801906208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-3.769633362168512e-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00836865836524511</v>
+      </c>
+      <c r="C54">
+        <v>-0.0550309797844059</v>
+      </c>
+      <c r="D54">
+        <v>-0.04214340792628299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005280053831254228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009251827047895575</v>
+      </c>
+      <c r="C55">
+        <v>-0.1051805373683855</v>
+      </c>
+      <c r="D55">
+        <v>-0.05319297830585826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002706042622602245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01937707109093147</v>
+      </c>
+      <c r="C56">
+        <v>-0.1719064051923618</v>
+      </c>
+      <c r="D56">
+        <v>-0.04989835523412731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008376797627752714</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01937417915428139</v>
+      </c>
+      <c r="C58">
+        <v>-0.1010424638868911</v>
+      </c>
+      <c r="D58">
+        <v>-0.0779047298365311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00793826880648546</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009384027832123361</v>
+      </c>
+      <c r="C59">
+        <v>-0.1695859601082977</v>
+      </c>
+      <c r="D59">
+        <v>0.2796925871873576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006926685336476205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02304915430825367</v>
+      </c>
+      <c r="C60">
+        <v>-0.2213634143660162</v>
+      </c>
+      <c r="D60">
+        <v>-0.02843572905254745</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01564246661901439</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002173979612033679</v>
+      </c>
+      <c r="C61">
+        <v>-0.09440799631565691</v>
+      </c>
+      <c r="D61">
+        <v>-0.06284777437784585</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1818802375904364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1434711580387827</v>
+      </c>
+      <c r="C62">
+        <v>-0.07637783502871547</v>
+      </c>
+      <c r="D62">
+        <v>-0.054123049018813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.00207468124163573</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00639229345022535</v>
+      </c>
+      <c r="C63">
+        <v>-0.05931344893090747</v>
+      </c>
+      <c r="D63">
+        <v>-0.02531242982254011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007831971192268791</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01452222710302021</v>
+      </c>
+      <c r="C64">
+        <v>-0.1025411972049033</v>
+      </c>
+      <c r="D64">
+        <v>-0.06471751281415759</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0001029184445949598</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01691476983957881</v>
+      </c>
+      <c r="C65">
+        <v>-0.1138242282315819</v>
+      </c>
+      <c r="D65">
+        <v>-0.02971320835000211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.009971319694141124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01193472038056611</v>
+      </c>
+      <c r="C66">
+        <v>-0.1528665858084719</v>
+      </c>
+      <c r="D66">
+        <v>-0.1219523851163726</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002479771203981424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01557080391014815</v>
+      </c>
+      <c r="C67">
+        <v>-0.06317836627882825</v>
+      </c>
+      <c r="D67">
+        <v>-0.03511441102545918</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007419449176181374</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001392550971747261</v>
+      </c>
+      <c r="C68">
+        <v>-0.1100623839062581</v>
+      </c>
+      <c r="D68">
+        <v>0.2609867989851377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003669468166796914</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005668469881832163</v>
+      </c>
+      <c r="C69">
+        <v>-0.0469615288875436</v>
+      </c>
+      <c r="D69">
+        <v>-0.0427398489022315</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001680590685675715</v>
+      </c>
+      <c r="C70">
+        <v>-0.001463434005078468</v>
+      </c>
+      <c r="D70">
+        <v>-0.001990403136805308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003309515379693687</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006161617688425456</v>
+      </c>
+      <c r="C71">
+        <v>-0.1126019320979767</v>
+      </c>
+      <c r="D71">
+        <v>0.2831700178749611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00933543810695044</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01508158145535611</v>
+      </c>
+      <c r="C72">
+        <v>-0.149916883975493</v>
+      </c>
+      <c r="D72">
+        <v>-0.02637628133145697</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01374928979517101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02932966184408587</v>
+      </c>
+      <c r="C73">
+        <v>-0.2825716465256921</v>
+      </c>
+      <c r="D73">
+        <v>-0.05107047342826243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005069132365339191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001425443733345302</v>
+      </c>
+      <c r="C74">
+        <v>-0.1045589231232777</v>
+      </c>
+      <c r="D74">
+        <v>-0.04281314183702938</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.007212859205452271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01055187131690845</v>
+      </c>
+      <c r="C75">
+        <v>-0.1311991349013443</v>
+      </c>
+      <c r="D75">
+        <v>-0.03777026352719964</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01083542476711952</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02118480985576066</v>
+      </c>
+      <c r="C76">
+        <v>-0.1453558912381511</v>
+      </c>
+      <c r="D76">
+        <v>-0.07447231324503087</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002043878233566722</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02405584278071301</v>
+      </c>
+      <c r="C77">
+        <v>-0.1318686401648288</v>
+      </c>
+      <c r="D77">
+        <v>-0.06492764919341942</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0001515647329971365</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01394729187725649</v>
+      </c>
+      <c r="C78">
+        <v>-0.09084561547246456</v>
+      </c>
+      <c r="D78">
+        <v>-0.07027044065971548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02690971417886397</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03670468643913219</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561205336642211</v>
+      </c>
+      <c r="D79">
+        <v>-0.03443993829191237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004935294984394586</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01054545780286058</v>
+      </c>
+      <c r="C80">
+        <v>-0.04151661742105281</v>
+      </c>
+      <c r="D80">
+        <v>-0.03249191774908416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0005625656052756177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01445070698331586</v>
+      </c>
+      <c r="C81">
+        <v>-0.1207127761616478</v>
+      </c>
+      <c r="D81">
+        <v>-0.05627884345906981</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005582723759795845</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01951985691183528</v>
+      </c>
+      <c r="C82">
+        <v>-0.1416138393256811</v>
+      </c>
+      <c r="D82">
+        <v>-0.04892433744833182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006359738927928266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.00965074646027805</v>
+      </c>
+      <c r="C83">
+        <v>-0.05564241148049533</v>
+      </c>
+      <c r="D83">
+        <v>-0.05162559886769692</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01512505941411688</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01146295921937732</v>
+      </c>
+      <c r="C84">
+        <v>-0.0296932008765986</v>
+      </c>
+      <c r="D84">
+        <v>-0.001191079265063569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01513879665190098</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0277951811455049</v>
+      </c>
+      <c r="C85">
+        <v>-0.1282142017437667</v>
+      </c>
+      <c r="D85">
+        <v>-0.05228972950049587</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003263584922681909</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.00532948186021174</v>
+      </c>
+      <c r="C86">
+        <v>-0.04857015372575388</v>
+      </c>
+      <c r="D86">
+        <v>-0.0237133497676192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008163869374909734</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.009908717972197783</v>
+      </c>
+      <c r="C87">
+        <v>-0.1269907465933314</v>
+      </c>
+      <c r="D87">
+        <v>-0.08247053704225757</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01472736721335409</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003062952249368077</v>
+      </c>
+      <c r="C88">
+        <v>-0.06903244013723422</v>
+      </c>
+      <c r="D88">
+        <v>-0.01721280335995253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01587519203670512</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001029282396908563</v>
+      </c>
+      <c r="C89">
+        <v>-0.1643643376796012</v>
+      </c>
+      <c r="D89">
+        <v>0.3442378364051688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003717759267034321</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00735127405614904</v>
+      </c>
+      <c r="C90">
+        <v>-0.1421891981282438</v>
+      </c>
+      <c r="D90">
+        <v>0.3163949693674441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001282134016068361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01024884712730528</v>
+      </c>
+      <c r="C91">
+        <v>-0.1042930716476778</v>
+      </c>
+      <c r="D91">
+        <v>-0.020438175131978</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01383226024023164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004674989892947615</v>
+      </c>
+      <c r="C92">
+        <v>-0.1528067473915201</v>
+      </c>
+      <c r="D92">
+        <v>0.3265998367227175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001817097642091617</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005248171391283923</v>
+      </c>
+      <c r="C93">
+        <v>-0.1251309107072324</v>
+      </c>
+      <c r="D93">
+        <v>0.3112624429876395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00316430182843452</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02191518034887202</v>
+      </c>
+      <c r="C94">
+        <v>-0.1566583818455695</v>
+      </c>
+      <c r="D94">
+        <v>-0.0361932739964865</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005427988178514355</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01589992243156062</v>
+      </c>
+      <c r="C95">
+        <v>-0.1243273440615259</v>
+      </c>
+      <c r="D95">
+        <v>-0.07085377332563225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.003073638781232587</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03431567377460627</v>
+      </c>
+      <c r="C97">
+        <v>-0.1770205568705382</v>
+      </c>
+      <c r="D97">
+        <v>-0.04404631513373077</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006907008319460187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03541169004442932</v>
+      </c>
+      <c r="C98">
+        <v>-0.2561695735341047</v>
+      </c>
+      <c r="D98">
+        <v>-0.04142804221349018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9808726359692606</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9828745187926742</v>
+      </c>
+      <c r="C99">
+        <v>0.1082626856532901</v>
+      </c>
+      <c r="D99">
+        <v>0.03246674807442734</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002402164998479858</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003283814147857916</v>
+      </c>
+      <c r="C101">
+        <v>-0.04795158116613382</v>
+      </c>
+      <c r="D101">
+        <v>-0.01660597413229764</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
